--- a/strategy_wide/cluster_strategy_wide_5_meaning.xlsx
+++ b/strategy_wide/cluster_strategy_wide_5_meaning.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/m224659_hiroshima-u_ac_jp/Documents/Documents/relation_strategy/strategy_wide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{5C033B5A-1FE8-417A-A103-A7E520E74604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64FF452B-13B4-4CCA-AD33-35D05E8A5730}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{5C033B5A-1FE8-417A-A103-A7E520E74604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA9A208B-A7CB-40F8-B46A-8BB09D547386}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="28620" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_strategy_wide_5" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,92 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="48">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="5" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -859,6 +944,17 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1246,441 +1342,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="4" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="9" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5188,6 +4849,44 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
+  <conditionalFormatting sqref="A1:H49">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="4" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="5" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="6" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="7" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="8" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",A1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="9" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I49">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I50:I1048576">
     <cfRule type="dataBar" priority="30">
       <dataBar>
@@ -5200,6 +4899,44 @@
           <x14:id>{A8B76424-4E36-4B14-B2AD-57765D031B87}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:N49">
+    <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="22" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="23" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="26" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="27" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O49">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50:O1048576">
@@ -5216,119 +4953,29 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U50:U1048576">
-    <cfRule type="dataBar" priority="28">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F3138E3C-DD69-4E1D-8D72-4E89C000AE80}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:H49">
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="5" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="8" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",A1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="9" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I49">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:N49">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="26" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",J1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O49">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P1:T49">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="30" priority="12" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="27" priority="15" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="26" priority="16" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5342,6 +4989,20 @@
         <color rgb="FFFCFCFF"/>
         <color rgb="FFF8696B"/>
       </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U50:U1048576">
+    <cfRule type="dataBar" priority="28">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD6007B"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F3138E3C-DD69-4E1D-8D72-4E89C000AE80}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5532,64 +5193,64 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3">
-        <v>31710156</v>
+        <v>31710086</v>
       </c>
       <c r="C3">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U3">
         <v>6</v>
@@ -5597,64 +5258,64 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>31710086</v>
+        <v>31710156</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U4">
         <v>6</v>
@@ -5857,10 +5518,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>31710165</v>
+        <v>31610121</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -5878,19 +5539,19 @@
         <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
@@ -5899,7 +5560,7 @@
         <v>20</v>
       </c>
       <c r="O8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P8" t="s">
         <v>23</v>
@@ -5908,24 +5569,24 @@
         <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U8">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B9">
-        <v>31610121</v>
+        <v>31710165</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -5943,19 +5604,19 @@
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
@@ -5964,7 +5625,7 @@
         <v>20</v>
       </c>
       <c r="O9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P9" t="s">
         <v>23</v>
@@ -5973,24 +5634,24 @@
         <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>31710071</v>
+        <v>3161013</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -6008,31 +5669,31 @@
         <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="s">
         <v>23</v>
@@ -6044,18 +5705,18 @@
         <v>23</v>
       </c>
       <c r="T10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U10">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>31510207</v>
+        <v>31710096</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -6082,45 +5743,45 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
         <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>23</v>
+      </c>
+      <c r="S11" t="s">
+        <v>23</v>
+      </c>
+      <c r="T11" t="s">
+        <v>23</v>
+      </c>
+      <c r="U11">
         <v>3</v>
-      </c>
-      <c r="P11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>22</v>
-      </c>
-      <c r="R11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B12">
-        <v>31710023</v>
+        <v>31710002</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -6138,28 +5799,28 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I12">
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" t="s">
         <v>24</v>
@@ -6171,10 +5832,10 @@
         <v>24</v>
       </c>
       <c r="S12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U12">
         <v>3</v>
@@ -6182,75 +5843,75 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>31410196</v>
+        <v>3161097</v>
       </c>
       <c r="C13">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I13">
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B14">
-        <v>31710135</v>
+        <v>31710042</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -6268,54 +5929,54 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I14">
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
         <v>20</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="s">
         <v>26</v>
       </c>
       <c r="R14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U14">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>31410170</v>
+        <v>31510156</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -6324,13 +5985,13 @@
         <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H15" t="s">
         <v>20</v>
@@ -6339,22 +6000,22 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
         <v>21</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
         <v>23</v>
@@ -6366,7 +6027,7 @@
         <v>28</v>
       </c>
       <c r="S15" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T15" t="s">
         <v>28</v>
@@ -6377,10 +6038,10 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>3161013</v>
+        <v>31710071</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -6398,31 +6059,31 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q16" t="s">
         <v>23</v>
@@ -6434,18 +6095,18 @@
         <v>23</v>
       </c>
       <c r="T16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="U16">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>31510074</v>
+        <v>31510207</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -6460,57 +6121,57 @@
         <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="S17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="U17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>31710150</v>
+        <v>31710023</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -6522,13 +6183,13 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -6537,45 +6198,45 @@
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N18" t="s">
         <v>20</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>31710148</v>
+        <v>31710135</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -6617,30 +6278,30 @@
         <v>3</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="R19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U19">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>31510058</v>
+        <v>31710148</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -6664,40 +6325,40 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N20" t="s">
         <v>20</v>
       </c>
       <c r="O20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="P20" t="s">
         <v>23</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="R20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="S20" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.4">
@@ -6767,10 +6428,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>31710096</v>
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -6794,48 +6455,48 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
         <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T22" t="s">
         <v>23</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>31710002</v>
+        <v>31410123</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -6853,54 +6514,54 @@
         <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R23" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>31510156</v>
+        <v>31410196</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -6912,10 +6573,10 @@
         <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
         <v>20</v>
@@ -6924,22 +6585,22 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P24" t="s">
         <v>23</v>
@@ -6962,10 +6623,10 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="B25">
+        <v>31410170</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -6974,10 +6635,10 @@
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
         <v>20</v>
@@ -6989,48 +6650,48 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q25" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T25" t="s">
         <v>28</v>
       </c>
       <c r="U25">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>31710145</v>
+        <v>31510074</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -7045,46 +6706,46 @@
         <v>20</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
         <v>21</v>
       </c>
       <c r="N26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P26" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R26" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="U26">
         <v>6</v>
@@ -7092,75 +6753,75 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>3161097</v>
+        <v>31710150</v>
       </c>
       <c r="C27">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N27" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="R27" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S27" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -7172,7 +6833,7 @@
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
         <v>20</v>
@@ -7184,7 +6845,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
         <v>20</v>
@@ -7199,33 +6860,33 @@
         <v>20</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q28" t="s">
         <v>22</v>
       </c>
       <c r="R28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="S28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>31410123</v>
+        <v>31710145</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -7249,7 +6910,7 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
         <v>20</v>
@@ -7264,16 +6925,16 @@
         <v>20</v>
       </c>
       <c r="O29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R29" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="S29" t="s">
         <v>28</v>
@@ -7282,7 +6943,7 @@
         <v>28</v>
       </c>
       <c r="U29">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.4">
@@ -7352,10 +7013,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>31510173</v>
+        <v>31510058</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -7370,7 +7031,7 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
         <v>20</v>
@@ -7379,48 +7040,48 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L31" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M31" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N31" t="s">
         <v>20</v>
       </c>
       <c r="O31">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" t="s">
         <v>23</v>
       </c>
       <c r="Q31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="S31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T31" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>31710042</v>
+        <v>31510173</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -7435,63 +7096,63 @@
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I32">
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N32" t="s">
         <v>20</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P32" t="s">
         <v>23</v>
       </c>
       <c r="Q32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="R32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T32" t="s">
         <v>24</v>
       </c>
       <c r="U32">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>31610028</v>
+        <v>31610052</v>
       </c>
       <c r="C33">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
@@ -7518,16 +7179,16 @@
         <v>21</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P33" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q33" t="s">
         <v>28</v>
@@ -7547,16 +7208,16 @@
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>31710167</v>
+        <v>31610028</v>
       </c>
       <c r="C34">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
@@ -7565,7 +7226,7 @@
         <v>21</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
         <v>21</v>
@@ -7574,40 +7235,40 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q34" t="s">
         <v>28</v>
       </c>
       <c r="R34" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S34" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="T34" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.4">
@@ -7742,16 +7403,16 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>31610052</v>
+        <v>31610025</v>
       </c>
       <c r="C37">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
         <v>21</v>
@@ -7763,7 +7424,7 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -7778,16 +7439,16 @@
         <v>21</v>
       </c>
       <c r="M37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="Q37" t="s">
         <v>28</v>
@@ -7802,21 +7463,21 @@
         <v>28</v>
       </c>
       <c r="U37">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>31610025</v>
+        <v>31710167</v>
       </c>
       <c r="C38">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
         <v>21</v>
@@ -7825,49 +7486,49 @@
         <v>21</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M38" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O38">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q38" t="s">
         <v>28</v>
       </c>
       <c r="R38" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="S38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="T38" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.4">
@@ -8067,16 +7728,16 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>26</v>
-      </c>
-      <c r="B42">
-        <v>31710016</v>
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
       </c>
       <c r="C42">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E42" t="s">
         <v>20</v>
@@ -8094,7 +7755,7 @@
         <v>5</v>
       </c>
       <c r="J42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="K42" t="s">
         <v>25</v>
@@ -8103,45 +7764,45 @@
         <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N42" t="s">
         <v>20</v>
       </c>
       <c r="O42">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q42" t="s">
         <v>22</v>
       </c>
       <c r="R42" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="S42" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T42" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="U42">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>32</v>
-      </c>
-      <c r="B43" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B43">
+        <v>31710016</v>
       </c>
       <c r="C43">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E43" t="s">
         <v>20</v>
@@ -8159,7 +7820,7 @@
         <v>5</v>
       </c>
       <c r="J43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
         <v>25</v>
@@ -8168,31 +7829,31 @@
         <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N43" t="s">
         <v>20</v>
       </c>
       <c r="O43">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q43" t="s">
         <v>22</v>
       </c>
       <c r="R43" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="S43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T43" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.4">
@@ -8592,56 +8253,68 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18"/>
-  <conditionalFormatting sqref="A1:C49">
-    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="x_x_x">
+  <conditionalFormatting sqref="A1:H49">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="13" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="14" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="15" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="16" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="17" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="18" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:N49">
-    <cfRule type="containsText" dxfId="47" priority="30" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="15" priority="37" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="30" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="32" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="12" priority="32" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="11" priority="33" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="10" priority="34" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="9" priority="35" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="8" priority="36" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O49">
@@ -8657,29 +8330,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:T49">
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="7" priority="28" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="22" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="5" priority="22" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="23" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="24" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="3" priority="24" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="25" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="2" priority="25" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="1" priority="26" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",P1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="0" priority="27" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",P1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:U49">
@@ -8694,44 +8367,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D1:H49">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="x_x_R">
-      <formula>NOT(ISERROR(SEARCH("x_x_R",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="F_S_x">
-      <formula>NOT(ISERROR(SEARCH("F_S_x",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",D1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>